--- a/!Flights - updated query_result_2021-06-29.xlsx
+++ b/!Flights - updated query_result_2021-06-29.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergeikomlev\Downloads\Flights\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergeikomlev\SF DS Pro\DS Projects\skillfactory_rds\module_0_project_4_flightsDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -262,7 +262,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -370,9 +370,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,59 +413,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0000"/>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -505,7 +463,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -513,7 +471,22 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -526,12 +499,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -561,14 +528,18 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -585,6 +556,32 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13454,7 +13451,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13492,9 +13488,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13514,7 +13508,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13552,9 +13545,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13574,7 +13565,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13612,9 +13602,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13634,7 +13622,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13672,9 +13659,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13694,7 +13679,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13732,9 +13716,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13754,7 +13736,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13792,9 +13773,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13814,7 +13793,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13852,9 +13830,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13874,7 +13850,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13912,9 +13887,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13934,7 +13907,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -13972,9 +13944,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -13994,7 +13964,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -14032,9 +14001,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -14054,7 +14021,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -14092,9 +14058,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -14114,7 +14078,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -14152,9 +14115,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -14174,7 +14135,6 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -14212,9 +14172,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -14476,7 +14434,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14485,14 +14442,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14501,14 +14455,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14517,14 +14468,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14533,14 +14481,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14549,14 +14494,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="51"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14565,14 +14507,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="53"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14581,14 +14520,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="57"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14597,14 +14533,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="61"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14613,14 +14546,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="70"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14629,14 +14559,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="76"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14645,14 +14572,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="83"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14661,14 +14585,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="115"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -14677,9 +14598,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15519,7 +15438,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -15529,11 +15447,11 @@
         </c:dLbls>
         <c:gapWidth val="70"/>
         <c:overlap val="-10"/>
-        <c:axId val="-2031466272"/>
-        <c:axId val="-2031468448"/>
+        <c:axId val="-1887788912"/>
+        <c:axId val="-1887789456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2031466272"/>
+        <c:axId val="-1887788912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15543,7 +15461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2031468448"/>
+        <c:crossAx val="-1887789456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15551,7 +15469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2031468448"/>
+        <c:axId val="-1887789456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000"/>
@@ -15603,7 +15521,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2031466272"/>
+        <c:crossAx val="-1887788912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="50000"/>
@@ -16262,7 +16180,7 @@
     <cacheField name="aircraft_code" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="733" maxValue="733"/>
     </cacheField>
-    <cacheField name="actual_departure" numFmtId="166">
+    <cacheField name="actual_departure" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-01-01T09:27:00" maxDate="2017-02-28T10:09:00" count="127">
         <d v="2017-01-01T09:27:00"/>
         <d v="2017-01-01T10:09:00"/>
@@ -16393,7 +16311,7 @@
         <d v="2017-02-28T10:09:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="actual_arrival" numFmtId="166">
+    <cacheField name="actual_arrival" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-01-01T10:17:00" maxDate="2017-02-28T11:49:00"/>
     </cacheField>
     <cacheField name="flight_duration" numFmtId="0">
@@ -20642,7 +20560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="30">
     <pivotField showAll="0"/>
@@ -20650,7 +20568,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="166" showAll="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0">
       <items count="128">
         <item x="0"/>
         <item x="1"/>
@@ -20782,7 +20700,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -21304,7 +21222,7 @@
     <dataField name="Product of diff" fld="29" subtotal="product" baseField="5" baseItem="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -22632,55 +22550,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE128" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE128" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:AE128"/>
   <sortState ref="A2:AE128">
     <sortCondition ref="AE1:AE128"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" name="flight_id" dataDxfId="36"/>
-    <tableColumn id="2" name="flight_no" dataDxfId="35"/>
-    <tableColumn id="3" name="departure_airport" dataDxfId="34"/>
-    <tableColumn id="4" name="arrival_airport" dataDxfId="33"/>
-    <tableColumn id="5" name="aircraft_code" dataDxfId="32"/>
-    <tableColumn id="6" name="actual_departure" dataDxfId="31"/>
-    <tableColumn id="7" name="actual_arrival" dataDxfId="30"/>
-    <tableColumn id="8" name="flight_duration" dataDxfId="29"/>
-    <tableColumn id="24" name="flight_duration_mins" dataDxfId="13"/>
-    <tableColumn id="9" name="seats_total" dataDxfId="28"/>
-    <tableColumn id="10" name="seats_business" dataDxfId="27"/>
-    <tableColumn id="11" name="seats_economy" dataDxfId="26"/>
-    <tableColumn id="12" name="tickets_sold" dataDxfId="25"/>
-    <tableColumn id="13" name="ticket_business" dataDxfId="24"/>
-    <tableColumn id="14" name="tickets_economy" dataDxfId="23"/>
-    <tableColumn id="15" name="tickets_revenue" dataDxfId="22"/>
-    <tableColumn id="16" name="economy_revenue" dataDxfId="21"/>
-    <tableColumn id="17" name="business_revenue" dataDxfId="18"/>
-    <tableColumn id="18" name="economy_%" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="19" name="business_%" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="31" name="sold_%" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="20" name="avg_price_economy" dataDxfId="15"/>
-    <tableColumn id="21" name="avg_price_business" dataDxfId="14"/>
-    <tableColumn id="25" name="bus_econ_diff" dataDxfId="10">
+    <tableColumn id="1" name="flight_id" dataDxfId="31"/>
+    <tableColumn id="2" name="flight_no" dataDxfId="30"/>
+    <tableColumn id="3" name="departure_airport" dataDxfId="29"/>
+    <tableColumn id="4" name="arrival_airport" dataDxfId="28"/>
+    <tableColumn id="5" name="aircraft_code" dataDxfId="27"/>
+    <tableColumn id="6" name="actual_departure" dataDxfId="26"/>
+    <tableColumn id="7" name="actual_arrival" dataDxfId="25"/>
+    <tableColumn id="8" name="flight_duration" dataDxfId="24"/>
+    <tableColumn id="24" name="flight_duration_mins" dataDxfId="23"/>
+    <tableColumn id="9" name="seats_total" dataDxfId="22"/>
+    <tableColumn id="10" name="seats_business" dataDxfId="21"/>
+    <tableColumn id="11" name="seats_economy" dataDxfId="20"/>
+    <tableColumn id="12" name="tickets_sold" dataDxfId="19"/>
+    <tableColumn id="13" name="ticket_business" dataDxfId="18"/>
+    <tableColumn id="14" name="tickets_economy" dataDxfId="17"/>
+    <tableColumn id="15" name="tickets_revenue" dataDxfId="16"/>
+    <tableColumn id="16" name="economy_revenue" dataDxfId="15"/>
+    <tableColumn id="17" name="business_revenue" dataDxfId="14"/>
+    <tableColumn id="18" name="economy_%" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="19" name="business_%" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="31" name="sold_%" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="20" name="avg_price_economy" dataDxfId="10"/>
+    <tableColumn id="21" name="avg_price_business" dataDxfId="9"/>
+    <tableColumn id="25" name="bus_econ_diff" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ppm_economy" dataDxfId="12">
+    <tableColumn id="22" name="ppm_economy" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_economy]]/Table1[[#This Row],[flight_duration_mins]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="ppm_business" dataDxfId="11">
+    <tableColumn id="23" name="ppm_business" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[flight_duration_mins]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="fcpm" dataDxfId="9"/>
-    <tableColumn id="27" name="fuel_costs_per_flight" dataDxfId="8">
+    <tableColumn id="26" name="fcpm" dataDxfId="5"/>
+    <tableColumn id="27" name="fuel_costs_per_flight" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[flight_duration_mins]]*Table1[[#This Row],[fcpm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="other_costs_per_flight" dataDxfId="5">
+    <tableColumn id="28" name="other_costs_per_flight" dataDxfId="3">
       <calculatedColumnFormula>(Table1[[#This Row],[fuel_costs_per_flight]]*74)/26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="TC" dataDxfId="7">
+    <tableColumn id="29" name="TC" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[fuel_costs_per_flight]]+Table1[[#This Row],[other_costs_per_flight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="return" dataDxfId="6">
+    <tableColumn id="30" name="return" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22954,7 +22872,7 @@
   <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F31"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23087,7 +23005,7 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>136250</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -23189,7 +23107,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>136464</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -23291,7 +23209,7 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>136122</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -23393,7 +23311,7 @@
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>136178</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -23495,7 +23413,7 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>136360</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -23597,7 +23515,7 @@
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>136204</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -23699,7 +23617,7 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>136383</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -23801,7 +23719,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>136202</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -23903,7 +23821,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>136185</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -24005,7 +23923,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>136486</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -24107,7 +24025,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>136282</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -24209,7 +24127,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>136345</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -24311,7 +24229,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>136485</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -24959,55 +24877,55 @@
       <c r="L20" s="5">
         <v>118</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>11</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>91</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4624633</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3401125</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1223508</v>
       </c>
-      <c r="S20" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S20" s="21">
+        <f t="shared" ref="S20:S28" ca="1" si="0">AVERAGE($S$2:$S$119)</f>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T20" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T20" s="21">
+        <f t="shared" ref="T20:T28" ca="1" si="1">AVERAGE($T$2:$T$119)</f>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V20" s="21">
+      <c r="V20" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>37375</v>
       </c>
-      <c r="W20" s="21">
+      <c r="W20" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>111228</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="20">
         <v>125</v>
       </c>
-      <c r="Z20" s="21">
+      <c r="Z20" s="20">
         <v>372</v>
       </c>
       <c r="AA20" s="7">
@@ -25067,55 +24985,55 @@
       <c r="L21" s="5">
         <v>118</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <v>11</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21" s="19">
         <v>91</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4671034</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3435250</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1235784</v>
       </c>
-      <c r="S21" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S21" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T21" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T21" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U21" s="22">
+      <c r="U21" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V21" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>37750</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>112344</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="20">
         <v>125</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="20">
         <v>372</v>
       </c>
       <c r="AA21" s="7">
@@ -25175,55 +25093,55 @@
       <c r="L22" s="5">
         <v>118</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>11</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O22" s="19">
         <v>91</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4701968</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3458000</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1243968</v>
       </c>
-      <c r="S22" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S22" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T22" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T22" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V22" s="21">
+      <c r="V22" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38000</v>
       </c>
-      <c r="W22" s="21">
+      <c r="W22" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>113088</v>
       </c>
-      <c r="X22" s="21">
+      <c r="X22" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="20">
         <v>125</v>
       </c>
-      <c r="Z22" s="21">
+      <c r="Z22" s="20">
         <v>372</v>
       </c>
       <c r="AA22" s="7">
@@ -25283,55 +25201,55 @@
       <c r="L23" s="5">
         <v>118</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>11</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23" s="19">
         <v>91</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4717435</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3469375</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1248060</v>
       </c>
-      <c r="S23" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S23" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T23" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T23" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V23" s="21">
+      <c r="V23" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38125</v>
       </c>
-      <c r="W23" s="21">
+      <c r="W23" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>113460</v>
       </c>
-      <c r="X23" s="21">
+      <c r="X23" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="Y23" s="20">
         <v>125</v>
       </c>
-      <c r="Z23" s="21">
+      <c r="Z23" s="20">
         <v>372</v>
       </c>
       <c r="AA23" s="7">
@@ -25391,55 +25309,55 @@
       <c r="L24" s="5">
         <v>118</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="19">
         <v>11</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="19">
         <v>91</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4748369</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3492125</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1256244</v>
       </c>
-      <c r="S24" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S24" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T24" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T24" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U24" s="22">
+      <c r="U24" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V24" s="21">
+      <c r="V24" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38375</v>
       </c>
-      <c r="W24" s="21">
+      <c r="W24" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>114204</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="20">
         <v>125</v>
       </c>
-      <c r="Z24" s="21">
+      <c r="Z24" s="20">
         <v>372</v>
       </c>
       <c r="AA24" s="7">
@@ -25499,55 +25417,55 @@
       <c r="L25" s="5">
         <v>118</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="19">
         <v>11</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <v>91</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4794770</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3526250</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1268520</v>
       </c>
-      <c r="S25" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S25" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T25" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T25" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38750</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>115320</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="20">
         <v>125</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25" s="20">
         <v>372</v>
       </c>
       <c r="AA25" s="7">
@@ -25607,55 +25525,55 @@
       <c r="L26" s="5">
         <v>118</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="19">
         <v>11</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <v>91</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4794770</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3526250</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1268520</v>
       </c>
-      <c r="S26" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S26" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T26" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T26" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U26" s="22">
+      <c r="U26" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V26" s="21">
+      <c r="V26" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38750</v>
       </c>
-      <c r="W26" s="21">
+      <c r="W26" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>115320</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="20">
         <v>125</v>
       </c>
-      <c r="Z26" s="21">
+      <c r="Z26" s="20">
         <v>372</v>
       </c>
       <c r="AA26" s="7">
@@ -25715,55 +25633,55 @@
       <c r="L27" s="5">
         <v>118</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="19">
         <v>11</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
         <v>91</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4810237</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3537625</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1272612</v>
       </c>
-      <c r="S27" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S27" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T27" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T27" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U27" s="22">
+      <c r="U27" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V27" s="21">
+      <c r="V27" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>38875</v>
       </c>
-      <c r="W27" s="21">
+      <c r="W27" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>115692</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="20">
         <v>125</v>
       </c>
-      <c r="Z27" s="21">
+      <c r="Z27" s="20">
         <v>372</v>
       </c>
       <c r="AA27" s="7">
@@ -25823,55 +25741,55 @@
       <c r="L28" s="5">
         <v>118</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <f>Table1[[#This Row],[ticket_business]]+Table1[[#This Row],[tickets_economy]]</f>
         <v>102</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="19">
         <v>11</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="19">
         <v>91</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="20">
         <f>Table1[[#This Row],[economy_revenue]]+Table1[[#This Row],[business_revenue]]</f>
         <v>4825704</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="20">
         <f>Table1[[#This Row],[tickets_economy]]*Table1[[#This Row],[avg_price_economy]]</f>
         <v>3549000</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="20">
         <f>Table1[[#This Row],[ticket_business]]*Table1[[#This Row],[avg_price_business]]</f>
         <v>1276704</v>
       </c>
-      <c r="S28" s="22">
-        <f ca="1">AVERAGE($S$2:$S$119)</f>
+      <c r="S28" s="21">
+        <f t="shared" ca="1" si="0"/>
         <v>0.90019264241174757</v>
       </c>
-      <c r="T28" s="22">
-        <f ca="1">AVERAGE($T$2:$T$119)</f>
+      <c r="T28" s="21">
+        <f t="shared" ca="1" si="1"/>
         <v>0.89901129943502822</v>
       </c>
-      <c r="U28" s="22">
+      <c r="U28" s="21">
         <v>0.7846153846153846</v>
       </c>
-      <c r="V28" s="21">
+      <c r="V28" s="20">
         <f>Table1[[#This Row],[ppm_economy]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>39000</v>
       </c>
-      <c r="W28" s="21">
+      <c r="W28" s="20">
         <f>Table1[[#This Row],[ppm_business]]*Table1[[#This Row],[flight_duration_mins]]</f>
         <v>116064</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28" s="20">
         <f>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</f>
         <v>2.976</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="20">
         <v>125</v>
       </c>
-      <c r="Z28" s="21">
+      <c r="Z28" s="20">
         <v>372</v>
       </c>
       <c r="AA28" s="7">
@@ -36096,12 +36014,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE2:AE128">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U128">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36152,10 +36070,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="24">
+      <c r="A2" s="26">
         <v>48000</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>733</v>
       </c>
       <c r="C2" s="4">
@@ -36175,8 +36093,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4">
@@ -36196,10 +36114,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -36207,7 +36125,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -36215,21 +36133,21 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
@@ -36237,7 +36155,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -36245,7 +36163,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -36253,10 +36171,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -36463,7 +36381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
@@ -37490,7 +37408,7 @@
       <c r="A129" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B129" s="25" t="e">
+      <c r="B129" s="23" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/!Flights - updated query_result_2021-06-29.xlsx
+++ b/!Flights - updated query_result_2021-06-29.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="78">
   <si>
     <t>flight_id</t>
   </si>
@@ -256,13 +256,17 @@
   <si>
     <t>sold_%</t>
   </si>
+  <si>
+    <t>return ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -347,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,18 +425,25 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="166" formatCode="#,##0.000"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -15447,11 +15458,11 @@
         </c:dLbls>
         <c:gapWidth val="70"/>
         <c:overlap val="-10"/>
-        <c:axId val="-1887788912"/>
-        <c:axId val="-1887789456"/>
+        <c:axId val="-1465469392"/>
+        <c:axId val="-1465482448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1887788912"/>
+        <c:axId val="-1465469392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15461,7 +15472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1887789456"/>
+        <c:crossAx val="-1465482448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15469,7 +15480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1887789456"/>
+        <c:axId val="-1465482448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500000"/>
@@ -15521,7 +15532,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1887788912"/>
+        <c:crossAx val="-1465469392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="50000"/>
@@ -21222,7 +21233,7 @@
     <dataField name="Product of diff" fld="29" subtotal="product" baseField="5" baseItem="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -22550,57 +22561,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AE128" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:AE128"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AF128" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:AF128"/>
   <sortState ref="A2:AE128">
     <sortCondition ref="AE1:AE128"/>
   </sortState>
-  <tableColumns count="31">
-    <tableColumn id="1" name="flight_id" dataDxfId="31"/>
-    <tableColumn id="2" name="flight_no" dataDxfId="30"/>
-    <tableColumn id="3" name="departure_airport" dataDxfId="29"/>
-    <tableColumn id="4" name="arrival_airport" dataDxfId="28"/>
-    <tableColumn id="5" name="aircraft_code" dataDxfId="27"/>
-    <tableColumn id="6" name="actual_departure" dataDxfId="26"/>
-    <tableColumn id="7" name="actual_arrival" dataDxfId="25"/>
-    <tableColumn id="8" name="flight_duration" dataDxfId="24"/>
-    <tableColumn id="24" name="flight_duration_mins" dataDxfId="23"/>
-    <tableColumn id="9" name="seats_total" dataDxfId="22"/>
-    <tableColumn id="10" name="seats_business" dataDxfId="21"/>
-    <tableColumn id="11" name="seats_economy" dataDxfId="20"/>
-    <tableColumn id="12" name="tickets_sold" dataDxfId="19"/>
-    <tableColumn id="13" name="ticket_business" dataDxfId="18"/>
-    <tableColumn id="14" name="tickets_economy" dataDxfId="17"/>
-    <tableColumn id="15" name="tickets_revenue" dataDxfId="16"/>
-    <tableColumn id="16" name="economy_revenue" dataDxfId="15"/>
-    <tableColumn id="17" name="business_revenue" dataDxfId="14"/>
-    <tableColumn id="18" name="economy_%" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="19" name="business_%" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="31" name="sold_%" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="20" name="avg_price_economy" dataDxfId="10"/>
-    <tableColumn id="21" name="avg_price_business" dataDxfId="9"/>
-    <tableColumn id="25" name="bus_econ_diff" dataDxfId="8">
+  <tableColumns count="32">
+    <tableColumn id="1" name="flight_id" dataDxfId="32"/>
+    <tableColumn id="2" name="flight_no" dataDxfId="31"/>
+    <tableColumn id="3" name="departure_airport" dataDxfId="30"/>
+    <tableColumn id="4" name="arrival_airport" dataDxfId="29"/>
+    <tableColumn id="5" name="aircraft_code" dataDxfId="28"/>
+    <tableColumn id="6" name="actual_departure" dataDxfId="27"/>
+    <tableColumn id="7" name="actual_arrival" dataDxfId="26"/>
+    <tableColumn id="8" name="flight_duration" dataDxfId="25"/>
+    <tableColumn id="24" name="flight_duration_mins" dataDxfId="24"/>
+    <tableColumn id="9" name="seats_total" dataDxfId="23"/>
+    <tableColumn id="10" name="seats_business" dataDxfId="22"/>
+    <tableColumn id="11" name="seats_economy" dataDxfId="21"/>
+    <tableColumn id="12" name="tickets_sold" dataDxfId="20"/>
+    <tableColumn id="13" name="ticket_business" dataDxfId="19"/>
+    <tableColumn id="14" name="tickets_economy" dataDxfId="18"/>
+    <tableColumn id="15" name="tickets_revenue" dataDxfId="17"/>
+    <tableColumn id="16" name="economy_revenue" dataDxfId="16"/>
+    <tableColumn id="17" name="business_revenue" dataDxfId="15"/>
+    <tableColumn id="18" name="economy_%" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="19" name="business_%" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="31" name="sold_%" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="20" name="avg_price_economy" dataDxfId="11"/>
+    <tableColumn id="21" name="avg_price_business" dataDxfId="10"/>
+    <tableColumn id="25" name="bus_econ_diff" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[avg_price_economy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="ppm_economy" dataDxfId="7">
+    <tableColumn id="22" name="ppm_economy" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_economy]]/Table1[[#This Row],[flight_duration_mins]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="ppm_business" dataDxfId="6">
+    <tableColumn id="23" name="ppm_business" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[avg_price_business]]/Table1[[#This Row],[flight_duration_mins]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="fcpm" dataDxfId="5"/>
-    <tableColumn id="27" name="fuel_costs_per_flight" dataDxfId="4">
+    <tableColumn id="26" name="fcpm" dataDxfId="6"/>
+    <tableColumn id="27" name="fuel_costs_per_flight" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[flight_duration_mins]]*Table1[[#This Row],[fcpm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="other_costs_per_flight" dataDxfId="3">
+    <tableColumn id="28" name="other_costs_per_flight" dataDxfId="4">
       <calculatedColumnFormula>(Table1[[#This Row],[fuel_costs_per_flight]]*74)/26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="TC" dataDxfId="2">
+    <tableColumn id="29" name="TC" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[fuel_costs_per_flight]]+Table1[[#This Row],[other_costs_per_flight]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="30" name="return" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="32" name="return ratio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22869,10 +22881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22909,7 +22921,7 @@
     <col min="32" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -23003,8 +23015,11 @@
       <c r="AE1" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="AF1" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>136250</v>
       </c>
@@ -23105,8 +23120,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-146046.15384615376</v>
       </c>
+      <c r="AF2" s="27">
+        <v>-0.10374069743298321</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>136464</v>
       </c>
@@ -23207,8 +23225,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-140461.5384615385</v>
       </c>
+      <c r="AF3" s="27">
+        <v>-0.10047320347749535</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>136122</v>
       </c>
@@ -23309,8 +23330,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-107461.5384615385</v>
       </c>
+      <c r="AF4" s="27">
+        <v>-7.5095414718056253E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>136178</v>
       </c>
@@ -23411,8 +23435,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-88476.923076923005</v>
       </c>
+      <c r="AF5" s="27">
+        <v>-6.1673583630923609E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>136360</v>
       </c>
@@ -23513,8 +23540,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-83061.538461538497</v>
       </c>
+      <c r="AF6" s="27">
+        <v>-5.7071278316296895E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>136204</v>
       </c>
@@ -23615,8 +23645,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-80661.538461538497</v>
       </c>
+      <c r="AF7" s="27">
+        <v>-5.5331004569583273E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>136383</v>
       </c>
@@ -23717,8 +23750,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-76030.769230769249</v>
       </c>
+      <c r="AF8" s="27">
+        <v>-5.0918007789157012E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>136202</v>
       </c>
@@ -23819,8 +23855,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-73630.769230769249</v>
       </c>
+      <c r="AF9" s="27">
+        <v>-4.9231592157508192E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>136185</v>
       </c>
@@ -23921,8 +23960,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-64615.384615384508</v>
       </c>
+      <c r="AF10" s="27">
+        <v>-4.2510121457489808E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>136486</v>
       </c>
@@ -24023,8 +24065,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-48446.153846153757</v>
       </c>
+      <c r="AF11" s="27">
+        <v>-3.2181582201510399E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>136282</v>
       </c>
@@ -24125,8 +24170,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-35046.153846153757</v>
       </c>
+      <c r="AF12" s="27">
+        <v>-2.3074897186037502E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>136345</v>
       </c>
@@ -24227,8 +24275,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-20861.538461538497</v>
       </c>
+      <c r="AF13" s="27">
+        <v>-1.3746401200275763E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>136485</v>
       </c>
@@ -24329,8 +24380,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>-18461.538461538497</v>
       </c>
+      <c r="AF14" s="27">
+        <v>-1.2145748987854275E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>136366</v>
       </c>
@@ -24431,8 +24485,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>4323.0769230769947</v>
       </c>
+      <c r="AF15" s="27">
+        <v>2.8303502180679553E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>136320</v>
       </c>
@@ -24533,8 +24590,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>5938.4615384615026</v>
       </c>
+      <c r="AF16" s="27">
+        <v>3.8451576913115142E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>136322</v>
       </c>
@@ -24635,8 +24695,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>13753.846153846243</v>
       </c>
+      <c r="AF17" s="27">
+        <v>8.7738237776513409E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>136165</v>
       </c>
@@ -24737,8 +24800,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>13753.846153846243</v>
       </c>
+      <c r="AF18" s="27">
+        <v>8.7738237776513409E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>136351</v>
       </c>
@@ -24839,8 +24905,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>16938.461538461503</v>
       </c>
+      <c r="AF19" s="27">
+        <v>1.0890099999010867E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>136514</v>
       </c>
@@ -24947,8 +25016,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>24633</v>
       </c>
+      <c r="AF20" s="27">
+        <v>5.3264767171795034E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>136546</v>
       </c>
@@ -25055,8 +25127,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>24880.153846153989</v>
       </c>
+      <c r="AF21" s="27">
+        <v>5.3264767171795346E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>136544</v>
       </c>
@@ -25163,8 +25238,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25044.923076923005</v>
       </c>
+      <c r="AF22" s="27">
+        <v>5.3264767171794887E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>136560</v>
       </c>
@@ -25271,8 +25349,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25127.307692307979</v>
       </c>
+      <c r="AF23" s="27">
+        <v>5.3264767171795641E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>136540</v>
       </c>
@@ -25379,8 +25460,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25292.076923076995</v>
       </c>
+      <c r="AF24" s="27">
+        <v>5.326476717179519E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>136511</v>
       </c>
@@ -25487,8 +25571,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25539.230769230984</v>
       </c>
+      <c r="AF25" s="27">
+        <v>5.3264767171795485E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>136513</v>
       </c>
@@ -25595,8 +25682,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25539.230769230984</v>
       </c>
+      <c r="AF26" s="27">
+        <v>5.3264767171795485E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>136567</v>
       </c>
@@ -25703,8 +25793,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25621.615384615958</v>
       </c>
+      <c r="AF27" s="27">
+        <v>5.3264767171796231E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>136523</v>
       </c>
@@ -25811,8 +25904,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>25704</v>
       </c>
+      <c r="AF28" s="27">
+        <v>5.3264767171795034E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>136266</v>
       </c>
@@ -25913,8 +26009,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>27938.461538461503</v>
       </c>
+      <c r="AF29" s="27">
+        <v>1.7836096487781859E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>136130</v>
       </c>
@@ -26015,8 +26114,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>33523.076923076995</v>
       </c>
+      <c r="AF30" s="27">
+        <v>2.1536089504739172E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>136420</v>
       </c>
@@ -26117,8 +26219,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>34307.692307692254</v>
       </c>
+      <c r="AF31" s="27">
+        <v>2.2248827696298479E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>136458</v>
       </c>
@@ -26219,8 +26324,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>45723.076923076995</v>
       </c>
+      <c r="AF32" s="27">
+        <v>2.9145255560349945E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>136411</v>
       </c>
@@ -26321,8 +26429,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>52338.461538461503</v>
       </c>
+      <c r="AF33" s="27">
+        <v>3.2900717587667529E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>136452</v>
       </c>
@@ -26423,8 +26534,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>64538.461538461503</v>
       </c>
+      <c r="AF34" s="27">
+        <v>4.0261048994673428E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>136146</v>
       </c>
@@ -26525,8 +26639,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>65738.461538461503</v>
       </c>
+      <c r="AF35" s="27">
+        <v>4.0978968668782881E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>136269</v>
       </c>
@@ -26627,8 +26744,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>66938.461538461503</v>
       </c>
+      <c r="AF36" s="27">
+        <v>4.1695815085624456E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>136209</v>
       </c>
@@ -26729,8 +26849,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>76738.461538461503</v>
       </c>
+      <c r="AF37" s="27">
+        <v>4.7510191640949419E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>136120</v>
       </c>
@@ -26831,8 +26954,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>82323.076923076995</v>
       </c>
+      <c r="AF38" s="27">
+        <v>5.1278856934768281E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>136172</v>
       </c>
@@ -26933,8 +27059,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>94523.076923076995</v>
       </c>
+      <c r="AF39" s="27">
+        <v>5.8434147454919011E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>136119</v>
       </c>
@@ -27035,8 +27164,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>99153.846153846243</v>
       </c>
+      <c r="AF40" s="27">
+        <v>5.9984177951510127E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>136270</v>
       </c>
@@ -27137,8 +27269,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>105523.07692307699</v>
       </c>
+      <c r="AF41" s="27">
+        <v>6.4793735062677757E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>136310</v>
       </c>
@@ -27239,8 +27374,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>115738.4615384615</v>
       </c>
+      <c r="AF42" s="27">
+        <v>6.9966425787970923E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>136268</v>
       </c>
@@ -27341,8 +27479,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>122353.84615384624</v>
       </c>
+      <c r="AF43" s="27">
+        <v>7.2994777564638014E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>136284</v>
       </c>
@@ -27443,8 +27584,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>123553.84615384624</v>
       </c>
+      <c r="AF44" s="27">
+        <v>7.3657950491144777E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>136215</v>
       </c>
@@ -27545,8 +27689,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>125538.4615384615</v>
       </c>
+      <c r="AF45" s="27">
+        <v>7.5443786982248504E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>136135</v>
       </c>
@@ -27647,8 +27794,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>140138.4615384615</v>
       </c>
+      <c r="AF46" s="27">
+        <v>8.3485322017432084E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>136264</v>
       </c>
@@ -27749,8 +27899,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>152338.4615384615</v>
       </c>
+      <c r="AF47" s="27">
+        <v>9.0098451347564168E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>136428</v>
       </c>
@@ -27851,8 +28004,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>155523.07692307699</v>
       </c>
+      <c r="AF48" s="27">
+        <v>9.2650468797257829E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>136439</v>
       </c>
@@ -27953,8 +28109,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>163338.4615384615</v>
       </c>
+      <c r="AF49" s="27">
+        <v>9.5979822269633031E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>136293</v>
       </c>
@@ -28055,8 +28214,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>166523.07692307699</v>
       </c>
+      <c r="AF50" s="27">
+        <v>9.8557692307692346E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>136181</v>
       </c>
@@ -28157,8 +28319,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>166523.07692307699</v>
       </c>
+      <c r="AF51" s="27">
+        <v>9.8557692307692346E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>136807</v>
       </c>
@@ -28259,8 +28424,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>177153.84615384613</v>
       </c>
+      <c r="AF52" s="27">
+        <v>0.33362306243662171</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>136642</v>
       </c>
@@ -28361,8 +28529,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>184230.76923076925</v>
       </c>
+      <c r="AF53" s="27">
+        <v>0.34695060118788934</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>136132</v>
       </c>
@@ -28463,8 +28634,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>190923.07692307699</v>
       </c>
+      <c r="AF54" s="27">
+        <v>0.11139035993178355</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>136159</v>
       </c>
@@ -28565,8 +28739,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>192907.69230769225</v>
       </c>
+      <c r="AF55" s="27">
+        <v>0.11343507721256747</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>136164</v>
       </c>
@@ -28667,8 +28844,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>215323.07692307699</v>
       </c>
+      <c r="AF56" s="27">
+        <v>0.12386279160324264</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>136479</v>
       </c>
@@ -28769,8 +28949,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>215323.07692307699</v>
       </c>
+      <c r="AF57" s="27">
+        <v>0.12386279160324264</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>136844</v>
       </c>
@@ -28871,8 +29054,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>221253.84615384613</v>
       </c>
+      <c r="AF58" s="27">
+        <v>0.38472238941722503</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>136471</v>
       </c>
@@ -28973,8 +29159,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>224338.4615384615</v>
       </c>
+      <c r="AF59" s="27">
+        <v>0.12726257178265346</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>136348</v>
       </c>
@@ -29075,8 +29264,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>224338.4615384615</v>
       </c>
+      <c r="AF60" s="27">
+        <v>0.12726257178265346</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>136887</v>
       </c>
@@ -29177,8 +29369,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>248430.76923076925</v>
       </c>
+      <c r="AF61" s="27">
+        <v>0.41739040529363114</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>136387</v>
       </c>
@@ -29279,8 +29474,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>251923.07692307699</v>
       </c>
+      <c r="AF62" s="27">
+        <v>0.14192849404117014</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>136922</v>
       </c>
@@ -29381,8 +29579,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>253953.84615384613</v>
       </c>
+      <c r="AF63" s="27">
+        <v>0.41782468929556782</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>136823</v>
       </c>
@@ -29483,8 +29684,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>259476.92307692306</v>
       </c>
+      <c r="AF64" s="27">
+        <v>0.41824133313495016</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>136463</v>
       </c>
@@ -29585,8 +29789,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>265323.07692307699</v>
       </c>
+      <c r="AF65" s="27">
+        <v>0.14835779295631682</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>136620</v>
       </c>
@@ -29687,8 +29894,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>266730.76923076925</v>
       </c>
+      <c r="AF66" s="27">
+        <v>0.43476898000125386</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>136645</v>
       </c>
@@ -29789,8 +29999,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>272076.92307692306</v>
       </c>
+      <c r="AF67" s="27">
+        <v>0.42982136347065253</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>136937</v>
       </c>
@@ -29891,8 +30104,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>272253.84615384613</v>
       </c>
+      <c r="AF68" s="27">
+        <v>0.43484083397835188</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>136888</v>
       </c>
@@ -29993,8 +30209,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>272253.84615384613</v>
       </c>
+      <c r="AF69" s="27">
+        <v>0.43484083397835188</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>136678</v>
       </c>
@@ -30095,8 +30314,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>277353.84615384613</v>
       </c>
+      <c r="AF70" s="27">
+        <v>0.43940723408404014</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>136936</v>
       </c>
@@ -30197,8 +30419,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>278553.84615384613</v>
       </c>
+      <c r="AF71" s="27">
+        <v>0.44047097747287495</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>136609</v>
       </c>
@@ -30299,8 +30524,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>285453.84615384613</v>
       </c>
+      <c r="AF72" s="27">
+        <v>0.44651000493328036</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>136436</v>
       </c>
@@ -30401,8 +30629,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>288523.07692307699</v>
       </c>
+      <c r="AF73" s="27">
+        <v>0.1592642288160063</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>136131</v>
       </c>
@@ -30503,8 +30734,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>289723.07692307699</v>
       </c>
+      <c r="AF74" s="27">
+        <v>0.15982076176250937</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>136767</v>
       </c>
@@ -30605,8 +30839,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>290376.92307692306</v>
       </c>
+      <c r="AF75" s="27">
+        <v>0.44584204372320446</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>136249</v>
       </c>
@@ -30707,8 +30944,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>292907.69230769225</v>
       </c>
+      <c r="AF76" s="27">
+        <v>0.16267227163595038</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>136441</v>
       </c>
@@ -30809,8 +31049,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>298738.4615384615</v>
       </c>
+      <c r="AF77" s="27">
+        <v>0.16260530238322529</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>136838</v>
       </c>
@@ -30911,8 +31154,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>309276.92307692306</v>
       </c>
+      <c r="AF78" s="27">
+        <v>0.46146959575786789</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>136666</v>
       </c>
@@ -31013,8 +31259,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>310653.84615384613</v>
       </c>
+      <c r="AF79" s="27">
+        <v>0.46750014470104762</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>136423</v>
       </c>
@@ -31115,8 +31364,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>310938.4615384615</v>
       </c>
+      <c r="AF80" s="27">
+        <v>0.16812937251998566</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>136275</v>
       </c>
@@ -31217,8 +31469,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>317307.69230769225</v>
       </c>
+      <c r="AF81" s="27">
+        <v>0.17386722866174917</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>136660</v>
       </c>
@@ -31319,8 +31574,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>330330.76923076925</v>
       </c>
+      <c r="AF82" s="27">
+        <v>0.48786112720538954</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>136769</v>
       </c>
@@ -31421,8 +31679,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>335076.92307692306</v>
       </c>
+      <c r="AF83" s="27">
+        <v>0.48143236074270557</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>136389</v>
       </c>
@@ -31523,8 +31784,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>335338.4615384615</v>
       </c>
+      <c r="AF84" s="27">
+        <v>0.17896171498476973</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>136403</v>
       </c>
@@ -31625,8 +31889,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>335338.4615384615</v>
       </c>
+      <c r="AF85" s="27">
+        <v>0.17896171498476973</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>136709</v>
       </c>
@@ -31727,8 +31994,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>335853.84615384613</v>
       </c>
+      <c r="AF86" s="27">
+        <v>0.4869564247554678</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>136729</v>
       </c>
@@ -31829,8 +32099,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>341553.84615384613</v>
       </c>
+      <c r="AF87" s="27">
+        <v>0.49116169996239017</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>136861</v>
       </c>
@@ -31931,8 +32204,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>342330.76923076925</v>
       </c>
+      <c r="AF88" s="27">
+        <v>0.49677952290055033</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>136316</v>
       </c>
@@ -32033,8 +32309,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>347538.4615384615</v>
       </c>
+      <c r="AF89" s="27">
+        <v>0.18427277918264132</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>136226</v>
       </c>
@@ -32135,8 +32414,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>347538.4615384615</v>
       </c>
+      <c r="AF90" s="27">
+        <v>0.18427277918264132</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>136855</v>
       </c>
@@ -32237,8 +32519,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>348453.84615384613</v>
       </c>
+      <c r="AF91" s="27">
+        <v>0.4961609656184624</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>136632</v>
       </c>
@@ -32339,8 +32624,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>353376.92307692306</v>
       </c>
+      <c r="AF92" s="27">
+        <v>0.49471779795173326</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>136780</v>
       </c>
@@ -32441,8 +32729,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>361053.84615384613</v>
       </c>
+      <c r="AF93" s="27">
+        <v>0.50504104931297544</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>136951</v>
       </c>
@@ -32543,8 +32834,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>373830.76923076925</v>
       </c>
+      <c r="AF94" s="27">
+        <v>0.51877708746984352</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>136754</v>
       </c>
@@ -32645,8 +32939,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>374430.76923076925</v>
       </c>
+      <c r="AF95" s="27">
+        <v>0.51917743931055083</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
         <v>136733</v>
       </c>
@@ -32747,8 +33044,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>385476.92307692306</v>
       </c>
+      <c r="AF96" s="27">
+        <v>0.51644818204303733</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" s="5">
         <v>136706</v>
       </c>
@@ -32849,8 +33149,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>386253.84615384613</v>
       </c>
+      <c r="AF97" s="27">
+        <v>0.5218941307307744</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>136669</v>
       </c>
@@ -32951,8 +33254,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>391776.92307692306</v>
       </c>
+      <c r="AF98" s="27">
+        <v>0.52049544715945673</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>136956</v>
       </c>
@@ -33053,8 +33359,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>392553.84615384613</v>
       </c>
+      <c r="AF99" s="27">
+        <v>0.5259295902382719</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>136612</v>
       </c>
@@ -33155,8 +33464,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>392553.84615384613</v>
       </c>
+      <c r="AF100" s="27">
+        <v>0.5259295902382719</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A101" s="5">
         <v>136630</v>
       </c>
@@ -33257,8 +33569,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>392553.84615384613</v>
       </c>
+      <c r="AF101" s="27">
+        <v>0.5259295902382719</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>136802</v>
       </c>
@@ -33359,8 +33674,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>392553.84615384613</v>
       </c>
+      <c r="AF102" s="27">
+        <v>0.5259295902382719</v>
+      </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>136907</v>
       </c>
@@ -33461,8 +33779,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>398076.92307692306</v>
       </c>
+      <c r="AF103" s="27">
+        <v>0.52447552447552448</v>
+      </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>136571</v>
       </c>
@@ -33563,8 +33884,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>398853.84615384613</v>
       </c>
+      <c r="AF104" s="27">
+        <v>0.52989749721515367</v>
+      </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>136720</v>
       </c>
@@ -33665,8 +33989,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>398853.84615384613</v>
       </c>
+      <c r="AF105" s="27">
+        <v>0.52989749721515367</v>
+      </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>136927</v>
       </c>
@@ -33767,8 +34094,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF106" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>136900</v>
       </c>
@@ -33869,8 +34199,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF107" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>136841</v>
       </c>
@@ -33971,8 +34304,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF108" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>136605</v>
       </c>
@@ -34073,8 +34409,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF109" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>136827</v>
       </c>
@@ -34175,8 +34514,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF110" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>136815</v>
       </c>
@@ -34277,8 +34619,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>404376.92307692306</v>
       </c>
+      <c r="AF111" s="27">
+        <v>0.52839007327443233</v>
+      </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>136661</v>
       </c>
@@ -34379,8 +34724,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF112" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
         <v>136819</v>
       </c>
@@ -34481,8 +34829,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF113" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A114" s="5">
         <v>136586</v>
       </c>
@@ -34583,8 +34934,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF114" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A115" s="5">
         <v>136649</v>
       </c>
@@ -34685,8 +35039,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF115" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A116" s="5">
         <v>136672</v>
       </c>
@@ -34787,8 +35144,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF116" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
         <v>136778</v>
       </c>
@@ -34889,8 +35249,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>405153.84615384613</v>
       </c>
+      <c r="AF117" s="27">
+        <v>0.53379953379953371</v>
+      </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A118" s="5">
         <v>136871</v>
       </c>
@@ -34991,8 +35354,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF118" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A119" s="5">
         <v>136781</v>
       </c>
@@ -35093,8 +35459,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF119" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>136755</v>
       </c>
@@ -35195,8 +35564,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF120" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A121" s="5">
         <v>136869</v>
       </c>
@@ -35297,8 +35669,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF121" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A122" s="5">
         <v>136600</v>
       </c>
@@ -35399,8 +35774,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF122" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A123" s="5">
         <v>136857</v>
       </c>
@@ -35501,8 +35879,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF123" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>136875</v>
       </c>
@@ -35603,8 +35984,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF124" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>136953</v>
       </c>
@@ -35705,8 +36089,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>411453.84615384613</v>
       </c>
+      <c r="AF125" s="27">
+        <v>0.53763732673963949</v>
+      </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A126" s="5">
         <v>136654</v>
       </c>
@@ -35807,8 +36194,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>412230.76923076925</v>
       </c>
+      <c r="AF126" s="27">
+        <v>0.54312354312354316</v>
+      </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A127" s="5">
         <v>136758</v>
       </c>
@@ -35909,8 +36299,11 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>418530.76923076925</v>
       </c>
+      <c r="AF127" s="27">
+        <v>0.54688458020484676</v>
+      </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A128" s="5">
         <v>136757</v>
       </c>
@@ -36011,15 +36404,21 @@
         <f>Table1[[#This Row],[tickets_revenue]]-Table1[[#This Row],[TC]]</f>
         <v>418530.76923076925</v>
       </c>
+      <c r="AF128" s="27">
+        <v>0.54688458020484676</v>
+      </c>
+    </row>
+    <row r="144" spans="27:27" x14ac:dyDescent="0.35">
+      <c r="AA144" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AE2:AE128">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U128">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
